--- a/src/test2.xlsx
+++ b/src/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>王 林</t>
   </si>
@@ -25,28 +25,105 @@
     <t>刘会见</t>
   </si>
   <si>
-    <t>815966365@qq.com</t>
+    <t>李 冰</t>
+  </si>
+  <si>
+    <t>张 楠</t>
+  </si>
+  <si>
+    <t>白云禄</t>
+  </si>
+  <si>
+    <t>冯广礼</t>
+  </si>
+  <si>
+    <t>李书豪</t>
+  </si>
+  <si>
+    <t>尹长月</t>
+  </si>
+  <si>
+    <t>武文凯</t>
+  </si>
+  <si>
+    <t>郭 俊</t>
+  </si>
+  <si>
+    <t>袁胜军</t>
   </si>
   <si>
     <t>唐伟婧</t>
   </si>
   <si>
-    <t>649857184@qq</t>
+    <t>杨 雷</t>
+  </si>
+  <si>
+    <t>解旭岩</t>
+  </si>
+  <si>
+    <t>杨 辰</t>
+  </si>
+  <si>
+    <t>胡 浩</t>
+  </si>
+  <si>
+    <t>牛二耀</t>
+  </si>
+  <si>
+    <t>赵怡红</t>
+  </si>
+  <si>
+    <t>艾 希</t>
+  </si>
+  <si>
+    <t>孙冰冰</t>
+  </si>
+  <si>
+    <t>许利红</t>
+  </si>
+  <si>
+    <t>马玉红</t>
+  </si>
+  <si>
+    <t>侯武民</t>
+  </si>
+  <si>
+    <t>刘静怡</t>
+  </si>
+  <si>
+    <t>乔爱华</t>
+  </si>
+  <si>
+    <t>陈艳芳</t>
+  </si>
+  <si>
+    <t>王 琦</t>
+  </si>
+  <si>
+    <t>田 野</t>
+  </si>
+  <si>
+    <t>林殿友</t>
+  </si>
+  <si>
+    <t>杨 超</t>
+  </si>
+  <si>
+    <t>王瑞鹏</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,46 +132,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -115,108 +232,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,7 +290,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,19 +404,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,157 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,54 +495,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,7 +533,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,153 +616,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,7 +809,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1022,45 +1072,304 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="1285547412@qq.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="815966365@qq.com" tooltip="mailto:815966365@qq.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B7" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B10" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B11" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B12" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B13" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B14" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B15" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B16" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B17" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B18" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B19" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B20" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B21" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B22" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B23" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B24" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B25" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B26" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B27" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B28" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B29" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B30" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B31" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B32" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="1285547412@qq.com"/>
+    <hyperlink ref="B3" r:id="rId1" display="1285547412@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/test2.xlsx
+++ b/src/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,11 +117,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,23 +140,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +168,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -179,21 +229,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,84 +275,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -290,6 +290,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,175 +326,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +495,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,48 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,6 +570,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -596,6 +587,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,136 +616,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,8 +1074,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
